--- a/examples/esempio2.xlsx
+++ b/examples/esempio2.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BragliaL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC6C040-30AA-4A82-B344-C3BB9CDAB22E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B93969-975E-447F-AE63-D17C0F2A9CBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="7365" windowWidth="19230" windowHeight="7410" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2745" yWindow="7680" windowWidth="15015" windowHeight="6675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pazienti" sheetId="5" r:id="rId1"/>
-    <sheet name="lesioni" sheetId="4" r:id="rId2"/>
+    <sheet name="pazienti" sheetId="4" r:id="rId1"/>
+    <sheet name="lesioni" sheetId="3" r:id="rId2"/>
     <sheet name="valutazioni" sheetId="1" r:id="rId3"/>
     <sheet name="modalita_output" sheetId="2" r:id="rId4"/>
-    <sheet name="modalita_struttura" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="81">
   <si>
     <t>variabile</t>
   </si>
@@ -66,204 +65,144 @@
     <t>input_messaggio</t>
   </si>
   <si>
-    <t>errore_titolo</t>
-  </si>
-  <si>
     <t>errore_messaggio</t>
   </si>
   <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>modalita</t>
+  </si>
+  <si>
+    <t>Sì</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Maschio</t>
+  </si>
+  <si>
+    <t>Femmina</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>sino</t>
+  </si>
+  <si>
+    <t>titstu</t>
+  </si>
+  <si>
+    <t>elementare</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>superiore</t>
+  </si>
+  <si>
+    <t>università</t>
+  </si>
+  <si>
+    <t>sf12_1</t>
+  </si>
+  <si>
+    <t>Eccellente</t>
+  </si>
+  <si>
+    <t>Molto buona</t>
+  </si>
+  <si>
+    <t>Buona</t>
+  </si>
+  <si>
+    <t>Passabile</t>
+  </si>
+  <si>
+    <t>Scadente</t>
+  </si>
+  <si>
+    <t>sf12_2</t>
+  </si>
+  <si>
+    <t>Sì parecchio</t>
+  </si>
+  <si>
+    <t>Sì parzialmente</t>
+  </si>
+  <si>
+    <t>No per nulla</t>
+  </si>
+  <si>
+    <t>id_pz</t>
+  </si>
+  <si>
+    <t>altezza</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>diabete</t>
+  </si>
+  <si>
+    <t>data_arr</t>
+  </si>
+  <si>
     <t>intero</t>
   </si>
   <si>
+    <t>decimale</t>
+  </si>
+  <si>
+    <t>elenco</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>&gt;=</t>
   </si>
   <si>
-    <t>decimale</t>
-  </si>
-  <si>
     <t>tra</t>
   </si>
   <si>
-    <t>elenco</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>testo</t>
-  </si>
-  <si>
-    <t>modalita</t>
-  </si>
-  <si>
-    <t>Sì</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Maschio</t>
-  </si>
-  <si>
-    <t>Femmina</t>
-  </si>
-  <si>
-    <t>elementare</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>superiore</t>
-  </si>
-  <si>
-    <t>università</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>T0</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>sf12_1</t>
-  </si>
-  <si>
-    <t>Eccellente</t>
-  </si>
-  <si>
-    <t>Molto buona</t>
-  </si>
-  <si>
-    <t>Buona</t>
-  </si>
-  <si>
-    <t>Passabile</t>
-  </si>
-  <si>
-    <t>Scadente</t>
-  </si>
-  <si>
-    <t>sf12_2</t>
-  </si>
-  <si>
-    <t>Sì parecchio</t>
-  </si>
-  <si>
-    <t>Sì parzialmente</t>
-  </si>
-  <si>
-    <t>No per nulla</t>
-  </si>
-  <si>
-    <t>validate</t>
-  </si>
-  <si>
-    <t>criteria</t>
-  </si>
-  <si>
-    <t>Sì/No</t>
-  </si>
-  <si>
-    <t>error type</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>non compreso tra</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>==</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>!=</t>
-  </si>
-  <si>
-    <t>ora</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
-    <t>sino</t>
-  </si>
-  <si>
-    <t>titstu</t>
-  </si>
-  <si>
-    <t>id_pz</t>
-  </si>
-  <si>
     <t>Identificativo paziente</t>
   </si>
   <si>
     <t>Inserire un progressivo numerico (partendo da 1)</t>
   </si>
   <si>
-    <t>Inserimento erroneo: deve essere un intero &gt;=1</t>
-  </si>
-  <si>
-    <t>altezza</t>
-  </si>
-  <si>
     <t>Altezza (m)</t>
   </si>
   <si>
     <t>Inserire l'altezza in metri (es 1.8 = 1 metro e 80 cm)</t>
   </si>
   <si>
-    <t>Inserimento erroneo: deve essere un valore tra 0 e 3</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
     <t>Sesso</t>
   </si>
   <si>
     <t>Inserire il sesso attuale del paziente</t>
   </si>
   <si>
-    <t>Inserimento erroneo: maschio o femmina</t>
-  </si>
-  <si>
-    <t>diabete</t>
-  </si>
-  <si>
     <t>Paziente diabetico</t>
   </si>
   <si>
     <t>Inserire se il paziente è diabetico oppure no</t>
   </si>
   <si>
-    <t>Inserimento erroneo: deve essere sì o no</t>
-  </si>
-  <si>
-    <t>data_arr</t>
-  </si>
-  <si>
     <t>Data arruolamento</t>
   </si>
   <si>
@@ -273,51 +212,48 @@
     <t>Deve essere una data &gt;= 1/1/2022</t>
   </si>
   <si>
+    <t>Deve essere un intero &gt;=1</t>
+  </si>
+  <si>
+    <t>Deve essere un valore tra 0 e 3</t>
+  </si>
+  <si>
+    <t>Inserire maschio o femmina</t>
+  </si>
+  <si>
+    <t>Deve essere sì o no</t>
+  </si>
+  <si>
     <t>id_les</t>
   </si>
   <si>
+    <t>diam_radio</t>
+  </si>
+  <si>
+    <t>diam_eco</t>
+  </si>
+  <si>
+    <t>diam_tac</t>
+  </si>
+  <si>
     <t>Identificativo lesione</t>
   </si>
   <si>
-    <t>diam_radio</t>
-  </si>
-  <si>
     <t>Diametro alla radiografia</t>
   </si>
   <si>
-    <t>Inserire il diametro alla radiografia (&gt;0)</t>
-  </si>
-  <si>
-    <t>Inserimento erroneo: deve essere un valore &gt; 0</t>
-  </si>
-  <si>
-    <t>diam_eco</t>
-  </si>
-  <si>
     <t>Diametro all’ecografia</t>
   </si>
   <si>
-    <t>Inserire il diametro all’ecografia (&gt;0)</t>
-  </si>
-  <si>
-    <t>diam_tac</t>
-  </si>
-  <si>
     <t>Diametro alla TAC</t>
   </si>
   <si>
-    <t>Inserire il diametro alla TAC (&gt;0)</t>
-  </si>
-  <si>
     <t>Tempo</t>
   </si>
   <si>
     <t>Inserire il tempo della  rilevazione</t>
   </si>
   <si>
-    <t>Inserimento erroneo</t>
-  </si>
-  <si>
     <t>SF12, 1 (salute)</t>
   </si>
   <si>
@@ -328,13 +264,28 @@
   </si>
   <si>
     <t>Inserire la valutazione al secondo item</t>
+  </si>
+  <si>
+    <t>Inserire una delle scelte possibili</t>
+  </si>
+  <si>
+    <t>Inserire il diametro alla radiografia in mm (&gt;=0)</t>
+  </si>
+  <si>
+    <t>Inserire il diametro all’ecografia in mm (&gt;=0)</t>
+  </si>
+  <si>
+    <t>Inserire il diametro alla TAC  in mm (&gt;=0)</t>
+  </si>
+  <si>
+    <t>Deve essere un valore &gt;= 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -350,22 +301,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,18 +311,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -402,26 +333,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -436,18 +352,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -829,8 +738,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36772F6-24B8-4E83-B363-A4592FD12A41}">
-  <dimension ref="A1:K1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3A0A0B-6295-4116-B236-4930357F1BAD}">
+  <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -847,12 +756,11 @@
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="43.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="44.85546875" customWidth="1"/>
-    <col min="1019" max="1024" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="44.85546875" customWidth="1"/>
+    <col min="1018" max="1023" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -883,45 +791,39 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -930,136 +832,113 @@
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4"/>
       <c r="H4" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4"/>
       <c r="H5" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5">
         <v>44562</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1001" s="12"/>
-      <c r="B1001" s="12"/>
-      <c r="C1001" s="12"/>
-      <c r="D1001" s="12"/>
-      <c r="E1001" s="12"/>
-      <c r="F1001" s="12"/>
-      <c r="G1001" s="12"/>
-      <c r="H1001" s="12"/>
-      <c r="I1001" s="12"/>
-      <c r="J1001" s="12"/>
-      <c r="K1001" s="12"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1001" s="9"/>
+      <c r="B1001" s="9"/>
+      <c r="C1001" s="9"/>
+      <c r="D1001" s="9"/>
+      <c r="E1001" s="9"/>
+      <c r="F1001" s="9"/>
+      <c r="G1001" s="9"/>
+      <c r="H1001" s="9"/>
+      <c r="I1001" s="9"/>
+      <c r="J1001" s="9"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1001" xr:uid="{1138C597-4360-45C5-A623-34F0BC6362EA}">
+      <formula1>"intero,decimale,elenco,data,ora,testo"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1001" xr:uid="{D93E8A16-FD12-4268-BEAD-CD3A262DA01D}">
+      <formula1>"tra,non compreso tra,==,!=,&gt;,&lt;,&gt;=,&lt;="</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E7C06813-0E23-45AB-94F1-C78706D3B2FD}">
-          <x14:formula1>
-            <xm:f>modalita_struttura!$B$3:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{06113954-9EEE-4223-ABD6-A61BDFE81860}">
-          <x14:formula1>
-            <xm:f>modalita_struttura!$D$3:$D$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1000</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4A09B8-B7E1-4865-B9FC-FADB25D25FAD}">
-  <dimension ref="A1:K1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408A56F5-E16D-4877-B76C-52186C75E470}">
+  <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,12 +951,11 @@
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="43.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="44.85546875" customWidth="1"/>
-    <col min="1019" max="1024" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="44.85546875" customWidth="1"/>
+    <col min="1018" max="1023" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1108,184 +986,155 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1001" s="12"/>
-      <c r="B1001" s="12"/>
-      <c r="C1001" s="12"/>
-      <c r="D1001" s="12"/>
-      <c r="E1001" s="12"/>
-      <c r="F1001" s="12"/>
-      <c r="G1001" s="12"/>
-      <c r="H1001" s="12"/>
-      <c r="I1001" s="12"/>
-      <c r="J1001" s="12"/>
-      <c r="K1001" s="12"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1001" s="9"/>
+      <c r="B1001" s="9"/>
+      <c r="C1001" s="9"/>
+      <c r="D1001" s="9"/>
+      <c r="E1001" s="9"/>
+      <c r="F1001" s="9"/>
+      <c r="G1001" s="9"/>
+      <c r="H1001" s="9"/>
+      <c r="I1001" s="9"/>
+      <c r="J1001" s="9"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1001" xr:uid="{3D03CC1E-823B-4884-AF5E-1425131C896F}">
+      <formula1>"tra,non compreso tra,==,!=,&gt;,&lt;,&gt;=,&lt;="</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1001" xr:uid="{47335B63-CADF-4AEF-B947-77414135D685}">
+      <formula1>"intero,decimale,elenco,data,ora,testo"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F3DF1F6F-2C68-456D-B19D-FD4D201F2ADC}">
-          <x14:formula1>
-            <xm:f>modalita_struttura!$D$3:$D$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{24CF900D-85CA-428F-A206-871789AD5FCD}">
-          <x14:formula1>
-            <xm:f>modalita_struttura!$B$3:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1000</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1001"/>
+  <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,12 +1147,11 @@
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="43.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="44.85546875" customWidth="1"/>
-    <col min="1019" max="1024" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="44.85546875" customWidth="1"/>
+    <col min="1018" max="1023" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1334,148 +1182,122 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4"/>
       <c r="H3" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4"/>
       <c r="H4" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4"/>
       <c r="H5" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="1001" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1001" s="12"/>
-      <c r="B1001" s="12"/>
-      <c r="C1001" s="12"/>
-      <c r="D1001" s="12"/>
-      <c r="E1001" s="12"/>
-      <c r="F1001" s="12"/>
-      <c r="G1001" s="12"/>
-      <c r="H1001" s="12"/>
-      <c r="I1001" s="12"/>
-      <c r="J1001" s="12"/>
-      <c r="K1001" s="12"/>
+    <row r="1001" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1001" s="9"/>
+      <c r="B1001" s="9"/>
+      <c r="C1001" s="9"/>
+      <c r="D1001" s="9"/>
+      <c r="E1001" s="9"/>
+      <c r="F1001" s="9"/>
+      <c r="G1001" s="9"/>
+      <c r="H1001" s="9"/>
+      <c r="I1001" s="9"/>
+      <c r="J1001" s="9"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1001" xr:uid="{67BD8087-4961-463F-A94E-7F5FBA3EB62E}">
+      <formula1>"intero,decimale,elenco,data,ora,testo"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1001" xr:uid="{4FED249A-B149-484D-92C0-9377828799FC}">
+      <formula1>"tra,non compreso tra,==,!=,&gt;,&lt;,&gt;=,&lt;="</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{97DD540D-FCAA-4BC2-80FF-47F12D4D60F1}">
-          <x14:formula1>
-            <xm:f>modalita_struttura!$B$3:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9FED6ED5-5526-4A97-8C58-9C48EACCCF8B}">
-          <x14:formula1>
-            <xm:f>modalita_struttura!$D$3:$D$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1000</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1500,295 +1322,166 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:H15"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="2.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="D9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="10"/>
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
